--- a/测试单-电子书_daisy_170213.xlsx
+++ b/测试单-电子书_daisy_170213.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -4048,7 +4048,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7599,7 +7599,7 @@
         <v>305</v>
       </c>
       <c r="O86" s="104">
-        <v>42772</v>
+        <v>42789</v>
       </c>
       <c r="P86" s="95" t="s">
         <v>304</v>
